--- a/Timesheet.xlsx
+++ b/Timesheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Work done</t>
   </si>
@@ -36,6 +36,93 @@
   </si>
   <si>
     <t>Saturday - 14/11</t>
+  </si>
+  <si>
+    <t>Created GameManager</t>
+  </si>
+  <si>
+    <t>Created CharacterManager</t>
+  </si>
+  <si>
+    <t>Created Characters</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>CameraManager</t>
+  </si>
+  <si>
+    <t>Additional GameManager edits</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Movement for players</t>
+  </si>
+  <si>
+    <t>Slave movement</t>
+  </si>
+  <si>
+    <t>Created Items &amp; Inventory</t>
+  </si>
+  <si>
+    <t>45m</t>
+  </si>
+  <si>
+    <t>Started work on the UIPanels &amp; UIManager</t>
+  </si>
+  <si>
+    <t>Tuesday - 17/11</t>
+  </si>
+  <si>
+    <t>Reimplemented parts of the scripts after first review</t>
+  </si>
+  <si>
+    <t>1h30m</t>
+  </si>
+  <si>
+    <t>Character logic moved</t>
+  </si>
+  <si>
+    <t>Inventory logic</t>
+  </si>
+  <si>
+    <t>Inventory panel logic</t>
+  </si>
+  <si>
+    <t>Thursday - 19/11</t>
+  </si>
+  <si>
+    <t>Character logic repurposed</t>
+  </si>
+  <si>
+    <t>Character panel implemented</t>
+  </si>
+  <si>
+    <t>Weapon cycle &amp; use of weapons</t>
+  </si>
+  <si>
+    <t>HUD</t>
+  </si>
+  <si>
+    <t>Separation of Character into derived classes, character is now abstract</t>
+  </si>
+  <si>
+    <t>Looting system: loot items with E and add them to inventory</t>
+  </si>
+  <si>
+    <t>Friday - 20/11</t>
+  </si>
+  <si>
+    <t>Final tweaking</t>
+  </si>
+  <si>
+    <t>Weapon logic</t>
+  </si>
+  <si>
+    <t>Visual Character materials &amp; physics layers</t>
   </si>
 </sst>
 </file>
@@ -67,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -134,11 +221,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,9 +288,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -183,6 +322,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,13 +655,13 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,7 +669,7 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -514,269 +677,363 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
